--- a/Classes/Topics.xlsx
+++ b/Classes/Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ArchitectureMaster\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB115CD-9B4D-44C5-A386-1E9E20AEC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EE76CF-445F-4A01-9D27-2A2B873ACDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{81509918-DCF6-4C6A-80EF-6070C17C5245}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Introduction</t>
-  </si>
-  <si>
     <t>Cloud Models</t>
   </si>
   <si>
@@ -68,16 +65,64 @@
     <t>Time (Min)</t>
   </si>
   <si>
-    <t>Sample Questions</t>
-  </si>
-  <si>
     <t>Change Language Console</t>
   </si>
   <si>
-    <t>Cloud Computing</t>
-  </si>
-  <si>
-    <t>What Is ?</t>
+    <t>AWS Infrastructure</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>Elastic And Scaling</t>
+  </si>
+  <si>
+    <t>Storage And Instances</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Data Bases</t>
+  </si>
+  <si>
+    <t>Computational Services</t>
+  </si>
+  <si>
+    <t>Deploy And Management</t>
+  </si>
+  <si>
+    <t>Global Insfrastructure</t>
+  </si>
+  <si>
+    <t>Cloud Integration</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Virtual Private Cloud (VPC)</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Account Managemnet and Billing</t>
+  </si>
+  <si>
+    <t>Identity Advanced</t>
+  </si>
+  <si>
+    <t>Well Architecture Framework</t>
   </si>
 </sst>
 </file>
@@ -432,28 +477,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE2AA20-5BF4-4F6B-979B-E77F558F95BA}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -461,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -472,7 +517,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>90</v>
@@ -483,54 +528,163 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="D5">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
